--- a/output_big_circle.xlsx
+++ b/output_big_circle.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{06DED2F6-3F36-564F-A239-00C19CA1DCD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EAE7B4-5C5B-C34C-A03C-BB388CE337ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="-6920" windowWidth="31000" windowHeight="21400"/>
+    <workbookView xWindow="26820" yWindow="-6920" windowWidth="31000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_square" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="output_big_circle1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_big_circle.txt" tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="output_big_circle1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_big_circle.txt" tab="0" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -53,8 +53,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="output_straight_line1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_straight_line.txt" tab="0" comma="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="output_straight_line1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_straight_line.txt" tab="0" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -3181,6 +3181,3421 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Big Circle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distance Measurements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> (d_front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>233.167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.52799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>217.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.80199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>173.64699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145.67699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136.26300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140.042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>154.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177.55099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>194.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>234.501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>271.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.233</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251.768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238.172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>258.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251.447</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>239.14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>247.43799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>272.142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>262.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>304.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>333.17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>425.072</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>384.565</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>381.92099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>317.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>319.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>345.23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>315.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>359.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>348.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387.351</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>405.39600000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>402.42899999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>327.72199999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>314.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>271.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>262.67399999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>262.86599999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>240.97800000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>235.989</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>232.32300000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>234.34</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>242.44800000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>254.55</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>298.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>259.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>231.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>192.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>185.339</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>182.48400000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163.179</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>152.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>151.68899999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>146.614</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>145.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>148.702</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>139.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>160.60900000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>176.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>203.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>258.053</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>291.04599999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>295.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>264.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>271.39499999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>254.417</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>256.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>262.495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>235.011</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>282.97199999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>266.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>310.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>369.63299999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>402.42899999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>353.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>360.28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>343.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>320.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>335.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>327.86</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>328.58499999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>316.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>383.75799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7131-054E-897A-7ADA582BC53E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> d_right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>234.291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308.03500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>281.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.51100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>388.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>345.67700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349.363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347.40699999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>339.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>364.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>361.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>374.959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>370.322</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>388.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>420.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>442.61399999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>519.71400000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>496.077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>469.21499999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>464.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>443.435</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>429.892</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>430.608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>402.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>459.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>469.97</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>487.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>482.983</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>431.637</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>392.98399999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>353.64299999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>363.25700000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>331.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>348.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>333.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>334.923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>349.96499999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>344.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>351.34</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>371.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>346.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>311.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>303.64499999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>274.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>286.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>261.48899999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>272.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>254.05500000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>267.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>265.036</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>265.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>257.30799999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>257.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>271.46499999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>291.411</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>320.86200000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>335.363</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>370.14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>360.59</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>349.51299999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>347.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>369.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>322.50799999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>333.62</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>341.464</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>359.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>384.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>422.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>461.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>522.14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>438.077</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>448.46800000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>448.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>409.26100000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>426.89299999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>458.02100000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>421.94099999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>472.84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>448.38799999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>459.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>492.44900000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>479.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>427.72199999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>404.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>354.65300000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>345.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>349.392</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>324.34699999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>322.40100000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>342.21899999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>323.11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>343.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>382.48700000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>364.16899999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>339.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7131-054E-897A-7ADA582BC53E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076031039"/>
+        <c:axId val="2076032671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2076031039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076032671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2076032671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076031039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> theta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.431</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.639</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.115</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.8140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.5619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.4740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.093</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.258</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.5870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.0779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.8279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.7429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.839</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.335</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D3A-EC43-973C-6B35922324FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2073996079"/>
+        <c:axId val="2075567647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2073996079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075567647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2075567647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073996079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> omega)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-1.145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.0189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.087</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.171</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.248</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.048</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.163</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.246</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.2889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.056</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.073</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.085</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.111</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.169</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.0269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.262</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.153</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.2929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.1870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.194</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.145</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.121</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.0069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.268</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.244</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.2110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.2310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.3069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.0569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.145</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.218</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.3180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.036</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.0069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.17</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.2769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.3720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.0609999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22B6-4444-ADD6-4A8BBA7F6E2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2078775839"/>
+        <c:axId val="2077689935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2078775839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077689935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2077689935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078775839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3222,6 +6637,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4293,6 +7828,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4367,15 +9450,123 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C478804B-1C9C-6348-8FB6-37245627AD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C6D628-4068-E84B-9A5A-FA2DD3D59488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C68962B-5F83-654E-B662-E9DF7B0C9EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_big_circle_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_big_circle_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_straight_line_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_straight_line_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4674,11 +9865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4804,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f>(L2-I2)/I2</f>
+        <f t="shared" ref="P2:P33" si="0">(L2-I2)/I2</f>
         <v>0</v>
       </c>
       <c r="Q2">
@@ -4812,11 +10003,11 @@
         <v>6.6084957214112986E-3</v>
       </c>
       <c r="S2">
-        <f>ABS(J2-PI())</f>
+        <f t="shared" ref="S2:S33" si="1">ABS(J2-PI())</f>
         <v>3.026407346410207</v>
       </c>
       <c r="T2">
-        <f>ABS(M2-PI())</f>
+        <f t="shared" ref="T2:T33" si="2">ABS(M2-PI())</f>
         <v>3.0464073464102066</v>
       </c>
     </row>
@@ -4864,23 +10055,23 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <f>(K3-H3)/H3</f>
+        <f t="shared" ref="O3:O34" si="3">(K3-H3)/H3</f>
         <v>-5.2358142962416815E-3</v>
       </c>
       <c r="P3">
-        <f>(L3-I3)/I3</f>
+        <f t="shared" si="0"/>
         <v>3.4492600975280468E-3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="0">(T3-S3)/S3</f>
+        <f t="shared" ref="Q3:Q66" si="4">(T3-S3)/S3</f>
         <v>-2.3977469292207846E-3</v>
       </c>
       <c r="S3">
-        <f>ABS(J3-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.9194073464102068</v>
       </c>
       <c r="T3">
-        <f>ABS(M3-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.9124073464102072</v>
       </c>
     </row>
@@ -4928,23 +10119,23 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <f>(K4-H4)/H4</f>
+        <f t="shared" si="3"/>
         <v>-1.0576810493785527E-2</v>
       </c>
       <c r="P4">
-        <f>(L4-I4)/I4</f>
+        <f t="shared" si="0"/>
         <v>6.250380502059637E-4</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.429384469394977E-3</v>
       </c>
       <c r="S4">
-        <f>ABS(J4-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.7984073464102073</v>
       </c>
       <c r="T4">
-        <f>ABS(M4-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.8024073464102068</v>
       </c>
     </row>
@@ -4992,23 +10183,23 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <f>(K5-H5)/H5</f>
+        <f t="shared" si="3"/>
         <v>6.9839636394820395E-3</v>
       </c>
       <c r="P5">
-        <f>(L5-I5)/I5</f>
+        <f t="shared" si="0"/>
         <v>-5.5984818234585182E-3</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.5711921564083412E-3</v>
       </c>
       <c r="S5">
-        <f>ABS(J5-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.6834073464102071</v>
       </c>
       <c r="T5">
-        <f>ABS(M5-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.7064073464102067</v>
       </c>
     </row>
@@ -5056,23 +10247,23 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <f>(K6-H6)/H6</f>
+        <f t="shared" si="3"/>
         <v>5.7584633470818486E-3</v>
       </c>
       <c r="P6">
-        <f>(L6-I6)/I6</f>
+        <f t="shared" si="0"/>
         <v>4.0042990167678497E-2</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.3261566356678798E-3</v>
       </c>
       <c r="S6">
-        <f>ABS(J6-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.5734073464102067</v>
       </c>
       <c r="T6">
-        <f>ABS(M6-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.5494073464102067</v>
       </c>
     </row>
@@ -5120,23 +10311,23 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <f>(K7-H7)/H7</f>
+        <f t="shared" si="3"/>
         <v>4.8115839205379778E-3</v>
       </c>
       <c r="P7">
-        <f>(L7-I7)/I7</f>
+        <f t="shared" si="0"/>
         <v>-1.0271983895181051E-2</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.3708976358953897E-3</v>
       </c>
       <c r="S7">
-        <f>ABS(J7-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.454407346410207</v>
       </c>
       <c r="T7">
-        <f>ABS(M7-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.4774073464102067</v>
       </c>
     </row>
@@ -5184,23 +10375,23 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <f>(K8-H8)/H8</f>
+        <f t="shared" si="3"/>
         <v>-1.7460407346584581E-3</v>
       </c>
       <c r="P8">
-        <f>(L8-I8)/I8</f>
+        <f t="shared" si="0"/>
         <v>6.059587417288864E-4</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2934338613022301E-3</v>
       </c>
       <c r="S8">
-        <f>ABS(J8-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.3194073464102072</v>
       </c>
       <c r="T8">
-        <f>ABS(M8-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.3224073464102073</v>
       </c>
     </row>
@@ -5248,23 +10439,23 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <f>(K9-H9)/H9</f>
+        <f t="shared" si="3"/>
         <v>-1.4169094776184019E-3</v>
       </c>
       <c r="P9">
-        <f>(L9-I9)/I9</f>
+        <f t="shared" si="0"/>
         <v>-4.9537875834230862E-3</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.5306934662867156E-3</v>
       </c>
       <c r="S9">
-        <f>ABS(J9-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.2034073464102066</v>
       </c>
       <c r="T9">
-        <f>ABS(M9-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.2244073464102065</v>
       </c>
     </row>
@@ -5312,23 +10503,23 @@
         <v>8</v>
       </c>
       <c r="O10">
-        <f>(K10-H10)/H10</f>
+        <f t="shared" si="3"/>
         <v>-6.3392973039919477E-5</v>
       </c>
       <c r="P10">
-        <f>(L10-I10)/I10</f>
+        <f t="shared" si="0"/>
         <v>-1.6050982110536926E-3</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2916142897395769E-2</v>
       </c>
       <c r="S10">
-        <f>ABS(J10-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.0904073464102071</v>
       </c>
       <c r="T10">
-        <f>ABS(M10-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.1174073464102072</v>
       </c>
     </row>
@@ -5376,23 +10567,23 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <f>(K11-H11)/H11</f>
+        <f t="shared" si="3"/>
         <v>-1.1745989265058047E-2</v>
       </c>
       <c r="P11">
-        <f>(L11-I11)/I11</f>
+        <f t="shared" si="0"/>
         <v>9.0217267038139662E-3</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.3201941207029638E-2</v>
       </c>
       <c r="S11">
-        <f>ABS(J11-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.9694073464102066</v>
       </c>
       <c r="T11">
-        <f>ABS(M11-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.9434073464102068</v>
       </c>
     </row>
@@ -5440,23 +10631,23 @@
         <v>10</v>
       </c>
       <c r="O12">
-        <f>(K12-H12)/H12</f>
+        <f t="shared" si="3"/>
         <v>-1.1343343202218217E-2</v>
       </c>
       <c r="P12">
-        <f>(L12-I12)/I12</f>
+        <f t="shared" si="0"/>
         <v>1.186324589701095E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.9392295591597827E-2</v>
       </c>
       <c r="S12">
-        <f>ABS(J12-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.8564073464102071</v>
       </c>
       <c r="T12">
-        <f>ABS(M12-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.8204073464102066</v>
       </c>
     </row>
@@ -5504,23 +10695,23 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <f>(K13-H13)/H13</f>
+        <f t="shared" si="3"/>
         <v>-6.0452168241062199E-3</v>
       </c>
       <c r="P13">
-        <f>(L13-I13)/I13</f>
+        <f t="shared" si="0"/>
         <v>-1.4600795704739546E-2</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.0191445520571522E-2</v>
       </c>
       <c r="S13">
-        <f>ABS(J13-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.7334073464102069</v>
       </c>
       <c r="T13">
-        <f>ABS(M13-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.6984073464102067</v>
       </c>
     </row>
@@ -5568,23 +10759,23 @@
         <v>12</v>
       </c>
       <c r="O14">
-        <f>(K14-H14)/H14</f>
+        <f t="shared" si="3"/>
         <v>-1.0099956238353211E-2</v>
       </c>
       <c r="P14">
-        <f>(L14-I14)/I14</f>
+        <f t="shared" si="0"/>
         <v>-2.6517452455492689E-2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.2748244820785921E-2</v>
       </c>
       <c r="S14">
-        <f>ABS(J14-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.6184073464102067</v>
       </c>
       <c r="T14">
-        <f>ABS(M14-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.5654073464102067</v>
       </c>
     </row>
@@ -5632,23 +10823,23 @@
         <v>13</v>
       </c>
       <c r="O15">
-        <f>(K15-H15)/H15</f>
+        <f t="shared" si="3"/>
         <v>1.146614419790527E-2</v>
       </c>
       <c r="P15">
-        <f>(L15-I15)/I15</f>
+        <f t="shared" si="0"/>
         <v>-4.1966083994330786E-2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.8735491110194439E-2</v>
       </c>
       <c r="S15">
-        <f>ABS(J15-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.4964073464102068</v>
       </c>
       <c r="T15">
-        <f>ABS(M15-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.4534073464102066</v>
       </c>
     </row>
@@ -5696,23 +10887,23 @@
         <v>14</v>
       </c>
       <c r="O16">
-        <f>(K16-H16)/H16</f>
+        <f t="shared" si="3"/>
         <v>1.5481007701344441E-2</v>
       </c>
       <c r="P16">
-        <f>(L16-I16)/I16</f>
+        <f t="shared" si="0"/>
         <v>-3.459567387687193E-2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.6117098181284784E-2</v>
       </c>
       <c r="S16">
-        <f>ABS(J16-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.3784073464102065</v>
       </c>
       <c r="T16">
-        <f>ABS(M16-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.3424073464102069</v>
       </c>
     </row>
@@ -5760,23 +10951,23 @@
         <v>15</v>
       </c>
       <c r="O17">
-        <f>(K17-H17)/H17</f>
+        <f t="shared" si="3"/>
         <v>2.5917138696526471E-2</v>
       </c>
       <c r="P17">
-        <f>(L17-I17)/I17</f>
+        <f t="shared" si="0"/>
         <v>-2.3690978515498985E-2</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.5867885931451359E-2</v>
       </c>
       <c r="S17">
-        <f>ABS(J17-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.260407346410207</v>
       </c>
       <c r="T17">
-        <f>ABS(M17-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.2404073464102066</v>
       </c>
     </row>
@@ -5824,23 +11015,23 @@
         <v>16</v>
       </c>
       <c r="O18">
-        <f>(K18-H18)/H18</f>
+        <f t="shared" si="3"/>
         <v>7.9975736374531675E-3</v>
       </c>
       <c r="P18">
-        <f>(L18-I18)/I18</f>
+        <f t="shared" si="0"/>
         <v>6.9984926323560818E-3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-8.7305184756707697E-4</v>
       </c>
       <c r="S18">
-        <f>ABS(J18-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.1454073464102068</v>
       </c>
       <c r="T18">
-        <f>ABS(M18-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.1444073464102065</v>
       </c>
     </row>
@@ -5888,11 +11079,11 @@
         <v>17</v>
       </c>
       <c r="O19">
-        <f>(K19-H19)/H19</f>
+        <f t="shared" si="3"/>
         <v>5.5875588065952596E-3</v>
       </c>
       <c r="P19">
-        <f>(L19-I19)/I19</f>
+        <f t="shared" si="0"/>
         <v>-2.5918662434143827E-2</v>
       </c>
       <c r="Q19">
@@ -5900,11 +11091,11 @@
         <v>1.8439309527628504E-2</v>
       </c>
       <c r="S19">
-        <f>ABS(J19-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.0304073464102066</v>
       </c>
       <c r="T19">
-        <f>ABS(M19-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.0494073464102067</v>
       </c>
     </row>
@@ -5952,23 +11143,23 @@
         <v>18</v>
       </c>
       <c r="O20">
-        <f>(K20-H20)/H20</f>
+        <f t="shared" si="3"/>
         <v>1.432649128229372E-2</v>
       </c>
       <c r="P20">
-        <f>(L20-I20)/I20</f>
+        <f t="shared" si="0"/>
         <v>-2.6931927047426297E-2</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0900283324664389E-2</v>
       </c>
       <c r="S20">
-        <f>ABS(J20-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.91740734641020705</v>
       </c>
       <c r="T20">
-        <f>ABS(M20-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.92740734641020683</v>
       </c>
     </row>
@@ -6016,23 +11207,23 @@
         <v>19</v>
       </c>
       <c r="O21">
-        <f>(K21-H21)/H21</f>
+        <f t="shared" si="3"/>
         <v>4.6338172960857255E-3</v>
       </c>
       <c r="P21">
-        <f>(L21-I21)/I21</f>
+        <f t="shared" si="0"/>
         <v>-2.3504458905760313E-2</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8807350162060208E-2</v>
       </c>
       <c r="S21">
-        <f>ABS(J21-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.79840734641020683</v>
       </c>
       <c r="T21">
-        <f>ABS(M21-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.82140734641020696</v>
       </c>
     </row>
@@ -6080,23 +11271,23 @@
         <v>20</v>
       </c>
       <c r="O22">
-        <f>(K22-H22)/H22</f>
+        <f t="shared" si="3"/>
         <v>2.0363778900318028E-2</v>
       </c>
       <c r="P22">
-        <f>(L22-I22)/I22</f>
+        <f t="shared" si="0"/>
         <v>-8.8700347088314594E-3</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.2832217785491608E-2</v>
       </c>
       <c r="S22">
-        <f>ABS(J22-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.70040734641020697</v>
       </c>
       <c r="T22">
-        <f>ABS(M22-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.67040734641020672</v>
       </c>
     </row>
@@ -6144,23 +11335,23 @@
         <v>21</v>
       </c>
       <c r="O23">
-        <f>(K23-H23)/H23</f>
+        <f t="shared" si="3"/>
         <v>2.4057970074311371E-2</v>
       </c>
       <c r="P23">
-        <f>(L23-I23)/I23</f>
+        <f t="shared" si="0"/>
         <v>1.7172147696172906E-2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.7593016809431105E-3</v>
       </c>
       <c r="S23">
-        <f>ABS(J23-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.56840734641020685</v>
       </c>
       <c r="T23">
-        <f>ABS(M23-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.56940734641020674</v>
       </c>
     </row>
@@ -6208,23 +11399,23 @@
         <v>22</v>
       </c>
       <c r="O24">
-        <f>(K24-H24)/H24</f>
+        <f t="shared" si="3"/>
         <v>2.438731339049411E-2</v>
       </c>
       <c r="P24">
-        <f>(L24-I24)/I24</f>
+        <f t="shared" si="0"/>
         <v>1.7018884623204548E-2</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>ABS(J24-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.46040734641020675</v>
       </c>
       <c r="T24">
-        <f>ABS(M24-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.46040734641020675</v>
       </c>
     </row>
@@ -6272,23 +11463,23 @@
         <v>23</v>
       </c>
       <c r="O25">
-        <f>(K25-H25)/H25</f>
+        <f t="shared" si="3"/>
         <v>2.0300176493298804E-2</v>
       </c>
       <c r="P25">
-        <f>(L25-I25)/I25</f>
+        <f t="shared" si="0"/>
         <v>5.6916134266301347E-3</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5.6752505881991341E-3</v>
       </c>
       <c r="S25">
-        <f>ABS(J25-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.3524073464102071</v>
       </c>
       <c r="T25">
-        <f>ABS(M25-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.35040734641020688</v>
       </c>
     </row>
@@ -6336,23 +11527,23 @@
         <v>24</v>
       </c>
       <c r="O26">
-        <f>(K26-H26)/H26</f>
+        <f t="shared" si="3"/>
         <v>-4.0170248564329811E-2</v>
       </c>
       <c r="P26">
-        <f>(L26-I26)/I26</f>
+        <f t="shared" si="0"/>
         <v>-2.017937219730943E-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.268996097436904E-2</v>
       </c>
       <c r="S26">
-        <f>ABS(J26-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.236407346410207</v>
       </c>
       <c r="T26">
-        <f>ABS(M26-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.23940734641020667</v>
       </c>
     </row>
@@ -6400,23 +11591,23 @@
         <v>25</v>
       </c>
       <c r="O27">
-        <f>(K27-H27)/H27</f>
+        <f t="shared" si="3"/>
         <v>-4.169010540028438E-2</v>
       </c>
       <c r="P27">
-        <f>(L27-I27)/I27</f>
+        <f t="shared" si="0"/>
         <v>-1.6051804799078074E-2</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-8.1694443129975064E-2</v>
       </c>
       <c r="S27">
-        <f>ABS(J27-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.12240734641020667</v>
       </c>
       <c r="T27">
-        <f>ABS(M27-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.11240734641020689</v>
       </c>
     </row>
@@ -6464,23 +11655,23 @@
         <v>26</v>
       </c>
       <c r="O28">
-        <f>(K28-H28)/H28</f>
+        <f t="shared" si="3"/>
         <v>-4.1284051767124672E-2</v>
       </c>
       <c r="P28">
-        <f>(L28-I28)/I28</f>
+        <f t="shared" si="0"/>
         <v>-1.9770505974373524E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.78498999485181298</v>
       </c>
       <c r="S28">
-        <f>ABS(J28-PI())</f>
+        <f t="shared" si="1"/>
         <v>7.4073464102069053E-3</v>
       </c>
       <c r="T28">
-        <f>ABS(M28-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.5926535897929917E-3</v>
       </c>
     </row>
@@ -6528,23 +11719,23 @@
         <v>27</v>
       </c>
       <c r="O29">
-        <f>(K29-H29)/H29</f>
+        <f t="shared" si="3"/>
         <v>-4.7965464865296986E-2</v>
       </c>
       <c r="P29">
-        <f>(L29-I29)/I29</f>
+        <f t="shared" si="0"/>
         <v>-9.546672621706085E-3</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.5039325967441962E-3</v>
       </c>
       <c r="S29">
-        <f>ABS(J29-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.11759265358979309</v>
       </c>
       <c r="T29">
-        <f>ABS(M29-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.11859265358979298</v>
       </c>
     </row>
@@ -6592,23 +11783,23 @@
         <v>28</v>
       </c>
       <c r="O30">
-        <f>(K30-H30)/H30</f>
+        <f t="shared" si="3"/>
         <v>-3.0487422893967172E-3</v>
       </c>
       <c r="P30">
-        <f>(L30-I30)/I30</f>
+        <f t="shared" si="0"/>
         <v>0.1961381277599494</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.11412019600073045</v>
       </c>
       <c r="S30">
-        <f>ABS(J30-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.23659265358979331</v>
       </c>
       <c r="T30">
-        <f>ABS(M30-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.20959265358979318</v>
       </c>
     </row>
@@ -6656,23 +11847,23 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <f>(K31-H31)/H31</f>
+        <f t="shared" si="3"/>
         <v>1.0610067998708037E-2</v>
       </c>
       <c r="P31">
-        <f>(L31-I31)/I31</f>
+        <f t="shared" si="0"/>
         <v>6.5701175035144874E-2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.0093216240335524E-2</v>
       </c>
       <c r="S31">
-        <f>ABS(J31-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.3495926535897933</v>
       </c>
       <c r="T31">
-        <f>ABS(M31-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.37759265358979333</v>
       </c>
     </row>
@@ -6720,23 +11911,23 @@
         <v>30</v>
       </c>
       <c r="O32">
-        <f>(K32-H32)/H32</f>
+        <f t="shared" si="3"/>
         <v>-8.1899223393006749E-3</v>
       </c>
       <c r="P32">
-        <f>(L32-I32)/I32</f>
+        <f t="shared" si="0"/>
         <v>5.3951002001469441E-2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.3479615631183541E-3</v>
       </c>
       <c r="S32">
-        <f>ABS(J32-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.47259265358979308</v>
       </c>
       <c r="T32">
-        <f>ABS(M32-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.47559265358979319</v>
       </c>
     </row>
@@ -6784,23 +11975,23 @@
         <v>31</v>
       </c>
       <c r="O33">
-        <f>(K33-H33)/H33</f>
+        <f t="shared" si="3"/>
         <v>-8.2136599116257539E-3</v>
       </c>
       <c r="P33">
-        <f>(L33-I33)/I33</f>
+        <f t="shared" si="0"/>
         <v>6.0691812635072992E-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.8980928922250168E-2</v>
       </c>
       <c r="S33">
-        <f>ABS(J33-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.58659265358979296</v>
       </c>
       <c r="T33">
-        <f>ABS(M33-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.56959265358979305</v>
       </c>
     </row>
@@ -6848,23 +12039,23 @@
         <v>32</v>
       </c>
       <c r="O34">
-        <f>(K34-H34)/H34</f>
+        <f t="shared" si="3"/>
         <v>1.2654898438236709E-2</v>
       </c>
       <c r="P34">
-        <f>(L34-I34)/I34</f>
+        <f t="shared" ref="P34:P65" si="5">(L34-I34)/I34</f>
         <v>2.6441769943179327E-2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.7102977501848484E-2</v>
       </c>
       <c r="S34">
-        <f>ABS(J34-PI())</f>
+        <f t="shared" ref="S34:S65" si="6">ABS(J34-PI())</f>
         <v>0.70059265358979328</v>
       </c>
       <c r="T34">
-        <f>ABS(M34-PI())</f>
+        <f t="shared" ref="T34:T65" si="7">ABS(M34-PI())</f>
         <v>0.66759265358979292</v>
       </c>
     </row>
@@ -6912,23 +12103,23 @@
         <v>33</v>
       </c>
       <c r="O35">
-        <f>(K35-H35)/H35</f>
+        <f t="shared" ref="O35:O66" si="8">(K35-H35)/H35</f>
         <v>2.8584277096912448E-3</v>
       </c>
       <c r="P35">
-        <f>(L35-I35)/I35</f>
+        <f t="shared" si="5"/>
         <v>3.6991214846389696E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.7935536079291623E-2</v>
       </c>
       <c r="S35">
-        <f>ABS(J35-PI())</f>
+        <f t="shared" si="6"/>
         <v>0.81359265358979327</v>
       </c>
       <c r="T35">
-        <f>ABS(M35-PI())</f>
+        <f t="shared" si="7"/>
         <v>0.77459265358979312</v>
       </c>
     </row>
@@ -6976,23 +12167,23 @@
         <v>34</v>
       </c>
       <c r="O36">
-        <f>(K36-H36)/H36</f>
+        <f t="shared" si="8"/>
         <v>1.0750607409318626E-2</v>
       </c>
       <c r="P36">
-        <f>(L36-I36)/I36</f>
+        <f t="shared" si="5"/>
         <v>1.3349864483017086E-2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.2639247862442303E-2</v>
       </c>
       <c r="S36">
-        <f>ABS(J36-PI())</f>
+        <f t="shared" si="6"/>
         <v>0.92759265358979315</v>
       </c>
       <c r="T36">
-        <f>ABS(M36-PI())</f>
+        <f t="shared" si="7"/>
         <v>0.90659265358979324</v>
       </c>
     </row>
@@ -7040,23 +12231,23 @@
         <v>35</v>
       </c>
       <c r="O37">
-        <f>(K37-H37)/H37</f>
+        <f t="shared" si="8"/>
         <v>2.3141139804096097E-2</v>
       </c>
       <c r="P37">
-        <f>(L37-I37)/I37</f>
+        <f t="shared" si="5"/>
         <v>-2.0395467673850271E-2</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.0130226268969699E-2</v>
       </c>
       <c r="S37">
-        <f>ABS(J37-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.0465926535897929</v>
       </c>
       <c r="T37">
-        <f>ABS(M37-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.0045926535897931</v>
       </c>
     </row>
@@ -7104,23 +12295,23 @@
         <v>36</v>
       </c>
       <c r="O38">
-        <f>(K38-H38)/H38</f>
+        <f t="shared" si="8"/>
         <v>1.680484364787237E-2</v>
       </c>
       <c r="P38">
-        <f>(L38-I38)/I38</f>
+        <f t="shared" si="5"/>
         <v>-7.1772695134584459E-3</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.4711066176468363E-2</v>
       </c>
       <c r="S38">
-        <f>ABS(J38-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.1555926535897931</v>
       </c>
       <c r="T38">
-        <f>ABS(M38-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.138592653589793</v>
       </c>
     </row>
@@ -7168,23 +12359,23 @@
         <v>37</v>
       </c>
       <c r="O39">
-        <f>(K39-H39)/H39</f>
+        <f t="shared" si="8"/>
         <v>2.1228545618789518E-2</v>
       </c>
       <c r="P39">
-        <f>(L39-I39)/I39</f>
+        <f t="shared" si="5"/>
         <v>-2.68073927129843E-3</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2652295547171566E-2</v>
       </c>
       <c r="S39">
-        <f>ABS(J39-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.2645926535897931</v>
       </c>
       <c r="T39">
-        <f>ABS(M39-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.2805926535897931</v>
       </c>
     </row>
@@ -7232,23 +12423,23 @@
         <v>38</v>
       </c>
       <c r="O40">
-        <f>(K40-H40)/H40</f>
+        <f t="shared" si="8"/>
         <v>1.3583336817771836E-2</v>
       </c>
       <c r="P40">
-        <f>(L40-I40)/I40</f>
+        <f t="shared" si="5"/>
         <v>-4.0375881417683328E-2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.1651385002854941E-2</v>
       </c>
       <c r="S40">
-        <f>ABS(J40-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.3855926535897931</v>
       </c>
       <c r="T40">
-        <f>ABS(M40-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.3555926535897931</v>
       </c>
     </row>
@@ -7296,23 +12487,23 @@
         <v>39</v>
       </c>
       <c r="O41">
-        <f>(K41-H41)/H41</f>
+        <f t="shared" si="8"/>
         <v>1.0723326103898492E-2</v>
       </c>
       <c r="P41">
-        <f>(L41-I41)/I41</f>
+        <f t="shared" si="5"/>
         <v>-2.186784820905853E-2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.9925708277382236E-2</v>
       </c>
       <c r="S41">
-        <f>ABS(J41-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.5055926535897932</v>
       </c>
       <c r="T41">
-        <f>ABS(M41-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.4755926535897932</v>
       </c>
     </row>
@@ -7360,23 +12551,23 @@
         <v>40</v>
       </c>
       <c r="O42">
-        <f>(K42-H42)/H42</f>
+        <f t="shared" si="8"/>
         <v>1.941335274667532E-4</v>
       </c>
       <c r="P42">
-        <f>(L42-I42)/I42</f>
+        <f t="shared" si="5"/>
         <v>4.5726004412267374E-2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.3038678621309968E-2</v>
       </c>
       <c r="S42">
-        <f>ABS(J42-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.6105926535897932</v>
       </c>
       <c r="T42">
-        <f>ABS(M42-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.5895926535897931</v>
       </c>
     </row>
@@ -7424,23 +12615,23 @@
         <v>41</v>
       </c>
       <c r="O43">
-        <f>(K43-H43)/H43</f>
+        <f t="shared" si="8"/>
         <v>-3.175208321986811E-2</v>
       </c>
       <c r="P43">
-        <f>(L43-I43)/I43</f>
+        <f t="shared" si="5"/>
         <v>5.6227595950632279E-2</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.9612450439032141E-2</v>
       </c>
       <c r="S43">
-        <f>ABS(J43-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.7335926535897932</v>
       </c>
       <c r="T43">
-        <f>ABS(M43-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.6995926535897932</v>
       </c>
     </row>
@@ -7488,23 +12679,23 @@
         <v>42</v>
       </c>
       <c r="O44">
-        <f>(K44-H44)/H44</f>
+        <f t="shared" si="8"/>
         <v>-1.7087720559169035E-2</v>
       </c>
       <c r="P44">
-        <f>(L44-I44)/I44</f>
+        <f t="shared" si="5"/>
         <v>-7.17096392504348E-3</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7.0361829891136766E-3</v>
       </c>
       <c r="S44">
-        <f>ABS(J44-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.8475926535897931</v>
       </c>
       <c r="T44">
-        <f>ABS(M44-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.8345926535897932</v>
       </c>
     </row>
@@ -7552,23 +12743,23 @@
         <v>43</v>
       </c>
       <c r="O45">
-        <f>(K45-H45)/H45</f>
+        <f t="shared" si="8"/>
         <v>-8.1733767991432962E-3</v>
       </c>
       <c r="P45">
-        <f>(L45-I45)/I45</f>
+        <f t="shared" si="5"/>
         <v>2.1104005910786726E-2</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.339071078905549E-2</v>
       </c>
       <c r="S45">
-        <f>ABS(J45-PI())</f>
+        <f t="shared" si="6"/>
         <v>1.9665926535897931</v>
       </c>
       <c r="T45">
-        <f>ABS(M45-PI())</f>
+        <f t="shared" si="7"/>
         <v>1.920592653589793</v>
       </c>
     </row>
@@ -7616,23 +12807,23 @@
         <v>44</v>
       </c>
       <c r="O46">
-        <f>(K46-H46)/H46</f>
+        <f t="shared" si="8"/>
         <v>-1.4962306497099878E-4</v>
       </c>
       <c r="P46">
-        <f>(L46-I46)/I46</f>
+        <f t="shared" si="5"/>
         <v>-1.9205745333902784E-2</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.3611949931419008E-3</v>
       </c>
       <c r="S46">
-        <f>ABS(J46-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.082592653589793</v>
       </c>
       <c r="T46">
-        <f>ABS(M46-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.0895926535897931</v>
       </c>
     </row>
@@ -7680,23 +12871,23 @@
         <v>45</v>
       </c>
       <c r="O47">
-        <f>(K47-H47)/H47</f>
+        <f t="shared" si="8"/>
         <v>3.5223454019716214E-3</v>
       </c>
       <c r="P47">
-        <f>(L47-I47)/I47</f>
+        <f t="shared" si="5"/>
         <v>-1.1280120624745099E-2</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.0719707186864211E-4</v>
       </c>
       <c r="S47">
-        <f>ABS(J47-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.2045926535897928</v>
       </c>
       <c r="T47">
-        <f>ABS(M47-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.2025926535897931</v>
       </c>
     </row>
@@ -7744,23 +12935,23 @@
         <v>46</v>
       </c>
       <c r="O48">
-        <f>(K48-H48)/H48</f>
+        <f t="shared" si="8"/>
         <v>-2.5252252738359559E-3</v>
       </c>
       <c r="P48">
-        <f>(L48-I48)/I48</f>
+        <f t="shared" si="5"/>
         <v>-1.6774040587798137E-2</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5877766802677479E-3</v>
       </c>
       <c r="S48">
-        <f>ABS(J48-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.3185926535897932</v>
       </c>
       <c r="T48">
-        <f>ABS(M48-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.3245926535897929</v>
       </c>
     </row>
@@ -7808,23 +12999,23 @@
         <v>47</v>
       </c>
       <c r="O49">
-        <f>(K49-H49)/H49</f>
+        <f t="shared" si="8"/>
         <v>1.7840693226469577E-2</v>
       </c>
       <c r="P49">
-        <f>(L49-I49)/I49</f>
+        <f t="shared" si="5"/>
         <v>-5.6204311938342936E-3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5.7575433036992623E-3</v>
       </c>
       <c r="S49">
-        <f>ABS(J49-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.4315926535897932</v>
       </c>
       <c r="T49">
-        <f>ABS(M49-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.4175926535897929</v>
       </c>
     </row>
@@ -7872,23 +13063,23 @@
         <v>48</v>
       </c>
       <c r="O50">
-        <f>(K50-H50)/H50</f>
+        <f t="shared" si="8"/>
         <v>-5.0491360556125145E-2</v>
       </c>
       <c r="P50">
-        <f>(L50-I50)/I50</f>
+        <f t="shared" si="5"/>
         <v>-3.8686153279260969E-2</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.507254728246389E-2</v>
       </c>
       <c r="S50">
-        <f>ABS(J50-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.5525926535897931</v>
       </c>
       <c r="T50">
-        <f>ABS(M50-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.4885926535897931</v>
       </c>
     </row>
@@ -7936,23 +13127,23 @@
         <v>49</v>
       </c>
       <c r="O51">
-        <f>(K51-H51)/H51</f>
+        <f t="shared" si="8"/>
         <v>-2.6064792369688344E-3</v>
       </c>
       <c r="P51">
-        <f>(L51-I51)/I51</f>
+        <f t="shared" si="5"/>
         <v>-2.2177216884812418E-3</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.3155127766308185E-2</v>
       </c>
       <c r="S51">
-        <f>ABS(J51-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.6775926535897931</v>
       </c>
       <c r="T51">
-        <f>ABS(M51-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.6155926535897933</v>
       </c>
     </row>
@@ -8000,23 +13191,23 @@
         <v>50</v>
       </c>
       <c r="O52">
-        <f>(K52-H52)/H52</f>
+        <f t="shared" si="8"/>
         <v>-1.5652900376863069E-2</v>
       </c>
       <c r="P52">
-        <f>(L52-I52)/I52</f>
+        <f t="shared" si="5"/>
         <v>-7.2411444700631591E-3</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.04330908050856E-2</v>
       </c>
       <c r="S52">
-        <f>ABS(J52-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.7895926535897932</v>
       </c>
       <c r="T52">
-        <f>ABS(M52-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.7325926535897933</v>
       </c>
     </row>
@@ -8064,23 +13255,23 @@
         <v>51</v>
       </c>
       <c r="O53">
-        <f>(K53-H53)/H53</f>
+        <f t="shared" si="8"/>
         <v>1.8717188860260841E-2</v>
       </c>
       <c r="P53">
-        <f>(L53-I53)/I53</f>
+        <f t="shared" si="5"/>
         <v>1.9606098596675635E-2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.7220046323709843E-2</v>
       </c>
       <c r="S53">
-        <f>ABS(J53-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.9035926535897931</v>
       </c>
       <c r="T53">
-        <f>ABS(M53-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.8535926535897933</v>
       </c>
     </row>
@@ -8128,23 +13319,23 @@
         <v>52</v>
       </c>
       <c r="O54">
-        <f>(K54-H54)/H54</f>
+        <f t="shared" si="8"/>
         <v>1.7050586219412311E-2</v>
       </c>
       <c r="P54">
-        <f>(L54-I54)/I54</f>
+        <f t="shared" si="5"/>
         <v>1.6283812752180694E-2</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7.3196878405074727E-3</v>
       </c>
       <c r="S54">
-        <f>ABS(J54-PI())</f>
+        <f t="shared" si="6"/>
         <v>3.005592653589793</v>
       </c>
       <c r="T54">
-        <f>ABS(M54-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.9835926535897932</v>
       </c>
     </row>
@@ -8192,23 +13383,23 @@
         <v>53</v>
       </c>
       <c r="O55">
-        <f>(K55-H55)/H55</f>
+        <f t="shared" si="8"/>
         <v>-7.2104624293774355E-3</v>
       </c>
       <c r="P55">
-        <f>(L55-I55)/I55</f>
+        <f t="shared" si="5"/>
         <v>3.0396081008423347E-2</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.3454670311227294E-2</v>
       </c>
       <c r="S55">
-        <f>ABS(J55-PI())</f>
+        <f t="shared" si="6"/>
         <v>3.1215926535897931</v>
       </c>
       <c r="T55">
-        <f>ABS(M55-PI())</f>
+        <f t="shared" si="7"/>
         <v>3.0795926535897933</v>
       </c>
     </row>
@@ -8256,23 +13447,23 @@
         <v>54</v>
       </c>
       <c r="O56">
-        <f>(K56-H56)/H56</f>
+        <f t="shared" si="8"/>
         <v>-3.0465644959250691E-3</v>
       </c>
       <c r="P56">
-        <f>(L56-I56)/I56</f>
+        <f t="shared" si="5"/>
         <v>4.0895018742389697E-2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9430858007161957E-2</v>
       </c>
       <c r="S56">
-        <f>ABS(J56-PI())</f>
+        <f t="shared" si="6"/>
         <v>3.0364073464102068</v>
       </c>
       <c r="T56">
-        <f>ABS(M56-PI())</f>
+        <f t="shared" si="7"/>
         <v>3.095407346410207</v>
       </c>
     </row>
@@ -8320,23 +13511,23 @@
         <v>55</v>
       </c>
       <c r="O57">
-        <f>(K57-H57)/H57</f>
+        <f t="shared" si="8"/>
         <v>-3.9697894188553857E-3</v>
       </c>
       <c r="P57">
-        <f>(L57-I57)/I57</f>
+        <f t="shared" si="5"/>
         <v>4.5029312212023005E-2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9819523782684839E-2</v>
       </c>
       <c r="S57">
-        <f>ABS(J57-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.9264073464102065</v>
       </c>
       <c r="T57">
-        <f>ABS(M57-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.9844073464102072</v>
       </c>
     </row>
@@ -8384,23 +13575,23 @@
         <v>56</v>
       </c>
       <c r="O58">
-        <f>(K58-H58)/H58</f>
+        <f t="shared" si="8"/>
         <v>-3.8928917087859361E-3</v>
       </c>
       <c r="P58">
-        <f>(L58-I58)/I58</f>
+        <f t="shared" si="5"/>
         <v>2.2180467801831388E-2</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3492366453465994E-2</v>
       </c>
       <c r="S58">
-        <f>ABS(J58-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.8164073464102071</v>
       </c>
       <c r="T58">
-        <f>ABS(M58-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.8544073464102073</v>
       </c>
     </row>
@@ -8448,23 +13639,23 @@
         <v>57</v>
       </c>
       <c r="O59">
-        <f>(K59-H59)/H59</f>
+        <f t="shared" si="8"/>
         <v>-1.2255190209683606E-2</v>
       </c>
       <c r="P59">
-        <f>(L59-I59)/I59</f>
+        <f t="shared" si="5"/>
         <v>2.9723088748155242E-3</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4440757090865566E-2</v>
       </c>
       <c r="S59">
-        <f>ABS(J59-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.7004073464102065</v>
       </c>
       <c r="T59">
-        <f>ABS(M59-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.7664073464102072</v>
       </c>
     </row>
@@ -8512,23 +13703,23 @@
         <v>58</v>
       </c>
       <c r="O60">
-        <f>(K60-H60)/H60</f>
+        <f t="shared" si="8"/>
         <v>-1.8640505024133114E-2</v>
       </c>
       <c r="P60">
-        <f>(L60-I60)/I60</f>
+        <f t="shared" si="5"/>
         <v>-6.2408345553926926E-3</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1164979586309357E-2</v>
       </c>
       <c r="S60">
-        <f>ABS(J60-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.5974073464102068</v>
       </c>
       <c r="T60">
-        <f>ABS(M60-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.6264073464102067</v>
       </c>
     </row>
@@ -8576,23 +13767,23 @@
         <v>59</v>
       </c>
       <c r="O61">
-        <f>(K61-H61)/H61</f>
+        <f t="shared" si="8"/>
         <v>-1.637501745997199E-2</v>
       </c>
       <c r="P61">
-        <f>(L61-I61)/I61</f>
+        <f t="shared" si="5"/>
         <v>1.6585869180554948E-3</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5754982733066875E-2</v>
       </c>
       <c r="S61">
-        <f>ABS(J61-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.4754073464102069</v>
       </c>
       <c r="T61">
-        <f>ABS(M61-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.5144073464102066</v>
       </c>
     </row>
@@ -8640,23 +13831,23 @@
         <v>60</v>
       </c>
       <c r="O62">
-        <f>(K62-H62)/H62</f>
+        <f t="shared" si="8"/>
         <v>-1.3265932730230976E-2</v>
       </c>
       <c r="P62">
-        <f>(L62-I62)/I62</f>
+        <f t="shared" si="5"/>
         <v>2.1061119315666926E-2</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0551161680947749E-2</v>
       </c>
       <c r="S62">
-        <f>ABS(J62-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.369407346410207</v>
       </c>
       <c r="T62">
-        <f>ABS(M62-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.3944073464102065</v>
       </c>
     </row>
@@ -8704,23 +13895,23 @@
         <v>61</v>
       </c>
       <c r="O63">
-        <f>(K63-H63)/H63</f>
+        <f t="shared" si="8"/>
         <v>-2.2712935704920549E-2</v>
       </c>
       <c r="P63">
-        <f>(L63-I63)/I63</f>
+        <f t="shared" si="5"/>
         <v>-1.6634378621089276E-2</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.2377268646854065E-3</v>
       </c>
       <c r="S63">
-        <f>ABS(J63-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.244407346410207</v>
       </c>
       <c r="T63">
-        <f>ABS(M63-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.2584073464102072</v>
       </c>
     </row>
@@ -8768,23 +13959,23 @@
         <v>62</v>
       </c>
       <c r="O64">
-        <f>(K64-H64)/H64</f>
+        <f t="shared" si="8"/>
         <v>-3.4542413757582033E-2</v>
       </c>
       <c r="P64">
-        <f>(L64-I64)/I64</f>
+        <f t="shared" si="5"/>
         <v>1.8111851266418247E-2</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.1852370637888332E-3</v>
       </c>
       <c r="S64">
-        <f>ABS(J64-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.1214073464102068</v>
       </c>
       <c r="T64">
-        <f>ABS(M64-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.1324073464102069</v>
       </c>
     </row>
@@ -8832,23 +14023,23 @@
         <v>63</v>
       </c>
       <c r="O65">
-        <f>(K65-H65)/H65</f>
+        <f t="shared" si="8"/>
         <v>-3.3318623124448304E-2</v>
       </c>
       <c r="P65">
-        <f>(L65-I65)/I65</f>
+        <f t="shared" si="5"/>
         <v>2.0174281468985863E-2</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.9846930192473713E-3</v>
       </c>
       <c r="S65">
-        <f>ABS(J65-PI())</f>
+        <f t="shared" si="6"/>
         <v>2.0034073464102065</v>
       </c>
       <c r="T65">
-        <f>ABS(M65-PI())</f>
+        <f t="shared" si="7"/>
         <v>2.0214073464102071</v>
       </c>
     </row>
@@ -8896,23 +14087,23 @@
         <v>64</v>
       </c>
       <c r="O66">
-        <f>(K66-H66)/H66</f>
+        <f t="shared" si="8"/>
         <v>-2.5379694478054354E-2</v>
       </c>
       <c r="P66">
-        <f>(L66-I66)/I66</f>
+        <f t="shared" ref="P66:P101" si="9">(L66-I66)/I66</f>
         <v>-1.3213074313907011E-2</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.3849915362527735E-3</v>
       </c>
       <c r="S66">
-        <f>ABS(J66-PI())</f>
+        <f t="shared" ref="S66:S101" si="10">ABS(J66-PI())</f>
         <v>1.8794073464102068</v>
       </c>
       <c r="T66">
-        <f>ABS(M66-PI())</f>
+        <f t="shared" ref="T66:T101" si="11">ABS(M66-PI())</f>
         <v>1.8914073464102072</v>
       </c>
     </row>
@@ -8960,23 +14151,23 @@
         <v>65</v>
       </c>
       <c r="O67">
-        <f>(K67-H67)/H67</f>
+        <f t="shared" ref="O67:O101" si="12">(K67-H67)/H67</f>
         <v>-2.0911378086928133E-2</v>
       </c>
       <c r="P67">
-        <f>(L67-I67)/I67</f>
+        <f t="shared" si="9"/>
         <v>-1.4996713867479214E-2</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q101" si="1">(T67-S67)/S67</f>
+        <f t="shared" ref="Q67:Q101" si="13">(T67-S67)/S67</f>
         <v>8.4870078369127366E-3</v>
       </c>
       <c r="S67">
-        <f>ABS(J67-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.7674073464102067</v>
       </c>
       <c r="T67">
-        <f>ABS(M67-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.7824073464102073</v>
       </c>
     </row>
@@ -9024,23 +14215,23 @@
         <v>66</v>
       </c>
       <c r="O68">
-        <f>(K68-H68)/H68</f>
+        <f t="shared" si="12"/>
         <v>5.2706957434349409E-3</v>
       </c>
       <c r="P68">
-        <f>(L68-I68)/I68</f>
+        <f t="shared" si="9"/>
         <v>-3.7929355143667813E-3</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>4.0160463042937945E-2</v>
       </c>
       <c r="S68">
-        <f>ABS(J68-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.643407346410207</v>
       </c>
       <c r="T68">
-        <f>ABS(M68-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.7094073464102069</v>
       </c>
     </row>
@@ -9088,23 +14279,23 @@
         <v>67</v>
       </c>
       <c r="O69">
-        <f>(K69-H69)/H69</f>
+        <f t="shared" si="12"/>
         <v>-1.9647320188836519E-2</v>
       </c>
       <c r="P69">
-        <f>(L69-I69)/I69</f>
+        <f t="shared" si="9"/>
         <v>7.5059040342702766E-4</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.089244975114469E-2</v>
       </c>
       <c r="S69">
-        <f>ABS(J69-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.5214073464102071</v>
       </c>
       <c r="T69">
-        <f>ABS(M69-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.5684073464102068</v>
       </c>
     </row>
@@ -9152,23 +14343,23 @@
         <v>68</v>
       </c>
       <c r="O70">
-        <f>(K70-H70)/H70</f>
+        <f t="shared" si="12"/>
         <v>-2.7249945679727692E-2</v>
       </c>
       <c r="P70">
-        <f>(L70-I70)/I70</f>
+        <f t="shared" si="9"/>
         <v>-5.8754866350610837E-3</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.061789737138022E-2</v>
       </c>
       <c r="S70">
-        <f>ABS(J70-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.4044073464102071</v>
       </c>
       <c r="T70">
-        <f>ABS(M70-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.4474073464102073</v>
       </c>
     </row>
@@ -9216,23 +14407,23 @@
         <v>69</v>
       </c>
       <c r="O71">
-        <f>(K71-H71)/H71</f>
+        <f t="shared" si="12"/>
         <v>-2.9663965619149354E-2</v>
       </c>
       <c r="P71">
-        <f>(L71-I71)/I71</f>
+        <f t="shared" si="9"/>
         <v>9.5430520987723998E-3</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.4981143512259158E-2</v>
       </c>
       <c r="S71">
-        <f>ABS(J71-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.2864073464102068</v>
       </c>
       <c r="T71">
-        <f>ABS(M71-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.3314073464102067</v>
       </c>
     </row>
@@ -9280,23 +14471,23 @@
         <v>70</v>
       </c>
       <c r="O72">
-        <f>(K72-H72)/H72</f>
+        <f t="shared" si="12"/>
         <v>-2.3574155653450769E-2</v>
       </c>
       <c r="P72">
-        <f>(L72-I72)/I72</f>
+        <f t="shared" si="9"/>
         <v>1.7757353770711196E-2</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.9274827738166444E-2</v>
       </c>
       <c r="S72">
-        <f>ABS(J72-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.1614073464102068</v>
       </c>
       <c r="T72">
-        <f>ABS(M72-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.1954073464102066</v>
       </c>
     </row>
@@ -9344,23 +14535,23 @@
         <v>71</v>
       </c>
       <c r="O73">
-        <f>(K73-H73)/H73</f>
+        <f t="shared" si="12"/>
         <v>-1.3103306755964888E-2</v>
       </c>
       <c r="P73">
-        <f>(L73-I73)/I73</f>
+        <f t="shared" si="9"/>
         <v>2.5098656966075064E-2</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>7.6525194006632595E-3</v>
       </c>
       <c r="S73">
-        <f>ABS(J73-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.0454073464102072</v>
       </c>
       <c r="T73">
-        <f>ABS(M73-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.0534073464102072</v>
       </c>
     </row>
@@ -9408,23 +14599,23 @@
         <v>72</v>
       </c>
       <c r="O74">
-        <f>(K74-H74)/H74</f>
+        <f t="shared" si="12"/>
         <v>6.6467465686179084E-4</v>
       </c>
       <c r="P74">
-        <f>(L74-I74)/I74</f>
+        <f t="shared" si="9"/>
         <v>2.9801556693079077E-2</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.7308386894731576E-2</v>
       </c>
       <c r="S74">
-        <f>ABS(J74-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.92440734641020672</v>
       </c>
       <c r="T74">
-        <f>ABS(M74-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.90840734641020671</v>
       </c>
     </row>
@@ -9472,23 +14663,23 @@
         <v>73</v>
       </c>
       <c r="O75">
-        <f>(K75-H75)/H75</f>
+        <f t="shared" si="12"/>
         <v>8.691022456937314E-3</v>
       </c>
       <c r="P75">
-        <f>(L75-I75)/I75</f>
+        <f t="shared" si="9"/>
         <v>-1.3237041087624652E-2</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.2572174553240434E-3</v>
       </c>
       <c r="S75">
-        <f>ABS(J75-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.79540734641020672</v>
       </c>
       <c r="T75">
-        <f>ABS(M75-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.79440734641020683</v>
       </c>
     </row>
@@ -9536,23 +14727,23 @@
         <v>74</v>
       </c>
       <c r="O76">
-        <f>(K76-H76)/H76</f>
+        <f t="shared" si="12"/>
         <v>1.6563368577445236E-2</v>
       </c>
       <c r="P76">
-        <f>(L76-I76)/I76</f>
+        <f t="shared" si="9"/>
         <v>-1.5709087960757801E-3</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S76">
-        <f>ABS(J76-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.66840734641020694</v>
       </c>
       <c r="T76">
-        <f>ABS(M76-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.66840734641020694</v>
       </c>
     </row>
@@ -9600,23 +14791,23 @@
         <v>75</v>
       </c>
       <c r="O77">
-        <f>(K77-H77)/H77</f>
+        <f t="shared" si="12"/>
         <v>8.7953444385988865E-3</v>
       </c>
       <c r="P77">
-        <f>(L77-I77)/I77</f>
+        <f t="shared" si="9"/>
         <v>-2.1415823914336749E-2</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-0.13143506378124925</v>
       </c>
       <c r="S77">
-        <f>ABS(J77-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.55540734641020695</v>
       </c>
       <c r="T77">
-        <f>ABS(M77-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.48240734641020699</v>
       </c>
     </row>
@@ -9664,23 +14855,23 @@
         <v>76</v>
       </c>
       <c r="O78">
-        <f>(K78-H78)/H78</f>
+        <f t="shared" si="12"/>
         <v>4.3605616589396101E-3</v>
       </c>
       <c r="P78">
-        <f>(L78-I78)/I78</f>
+        <f t="shared" si="9"/>
         <v>-2.7733419114690454E-2</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-5.9305575540407766E-2</v>
       </c>
       <c r="S78">
-        <f>ABS(J78-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.43840734641020696</v>
       </c>
       <c r="T78">
-        <f>ABS(M78-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.41240734641020671</v>
       </c>
     </row>
@@ -9728,23 +14919,23 @@
         <v>77</v>
       </c>
       <c r="O79">
-        <f>(K79-H79)/H79</f>
+        <f t="shared" si="12"/>
         <v>5.4214676393268661E-4</v>
       </c>
       <c r="P79">
-        <f>(L79-I79)/I79</f>
+        <f t="shared" si="9"/>
         <v>-3.3836682259980148E-2</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.570315527066499E-2</v>
       </c>
       <c r="S79">
-        <f>ABS(J79-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.31840734641020685</v>
       </c>
       <c r="T79">
-        <f>ABS(M79-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.31340734641020696</v>
       </c>
     </row>
@@ -9792,23 +14983,23 @@
         <v>78</v>
       </c>
       <c r="O80">
-        <f>(K80-H80)/H80</f>
+        <f t="shared" si="12"/>
         <v>1.9130922702122976E-2</v>
       </c>
       <c r="P80">
-        <f>(L80-I80)/I80</f>
+        <f t="shared" si="9"/>
         <v>-1.289280803340531E-2</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-0.20832591837377246</v>
       </c>
       <c r="S80">
-        <f>ABS(J80-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.20640734641020675</v>
       </c>
       <c r="T80">
-        <f>ABS(M80-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.16340734641020704</v>
       </c>
     </row>
@@ -9856,23 +15047,23 @@
         <v>79</v>
       </c>
       <c r="O81">
-        <f>(K81-H81)/H81</f>
+        <f t="shared" si="12"/>
         <v>5.2758412310050712E-2</v>
       </c>
       <c r="P81">
-        <f>(L81-I81)/I81</f>
+        <f t="shared" si="9"/>
         <v>-1.724227338726348E-3</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-0.52357447235269017</v>
       </c>
       <c r="S81">
-        <f>ABS(J81-PI())</f>
+        <f t="shared" si="10"/>
         <v>9.7407346410206763E-2</v>
       </c>
       <c r="T81">
-        <f>ABS(M81-PI())</f>
+        <f t="shared" si="11"/>
         <v>4.6407346410207051E-2</v>
       </c>
     </row>
@@ -9920,23 +15111,23 @@
         <v>80</v>
       </c>
       <c r="O82">
-        <f>(K82-H82)/H82</f>
+        <f t="shared" si="12"/>
         <v>3.051953273067691E-2</v>
       </c>
       <c r="P82">
-        <f>(L82-I82)/I82</f>
+        <f t="shared" si="9"/>
         <v>-0.13750394031732682</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>9.7757926724499313</v>
       </c>
       <c r="S82">
-        <f>ABS(J82-PI())</f>
+        <f t="shared" si="10"/>
         <v>8.5926535897931089E-3</v>
       </c>
       <c r="T82">
-        <f>ABS(M82-PI())</f>
+        <f t="shared" si="11"/>
         <v>9.2592653589793183E-2</v>
       </c>
     </row>
@@ -9984,23 +15175,23 @@
         <v>81</v>
       </c>
       <c r="O83">
-        <f>(K83-H83)/H83</f>
+        <f t="shared" si="12"/>
         <v>4.4208513435452214E-2</v>
       </c>
       <c r="P83">
-        <f>(L83-I83)/I83</f>
+        <f t="shared" si="9"/>
         <v>-2.0546058069510074E-2</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0.50157164159743262</v>
       </c>
       <c r="S83">
-        <f>ABS(J83-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.12959265358979311</v>
       </c>
       <c r="T83">
-        <f>ABS(M83-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.19459265358979305</v>
       </c>
     </row>
@@ -10048,23 +15239,23 @@
         <v>82</v>
       </c>
       <c r="O84">
-        <f>(K84-H84)/H84</f>
+        <f t="shared" si="12"/>
         <v>2.7053107946226503E-2</v>
       </c>
       <c r="P84">
-        <f>(L84-I84)/I84</f>
+        <f t="shared" si="9"/>
         <v>-0.15102119708781647</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0.39089117120069194</v>
       </c>
       <c r="S84">
-        <f>ABS(J84-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.24559265358979321</v>
       </c>
       <c r="T84">
-        <f>ABS(M84-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.34159265358979329</v>
       </c>
     </row>
@@ -10112,23 +15303,23 @@
         <v>83</v>
       </c>
       <c r="O85">
-        <f>(K85-H85)/H85</f>
+        <f t="shared" si="12"/>
         <v>2.5391379871892338E-2</v>
       </c>
       <c r="P85">
-        <f>(L85-I85)/I85</f>
+        <f t="shared" si="9"/>
         <v>-2.3879926638469908E-2</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>8.9773284851403859E-2</v>
       </c>
       <c r="S85">
-        <f>ABS(J85-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.36759265358979309</v>
       </c>
       <c r="T85">
-        <f>ABS(M85-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.40059265358979301</v>
       </c>
     </row>
@@ -10176,23 +15367,23 @@
         <v>84</v>
       </c>
       <c r="O86">
-        <f>(K86-H86)/H86</f>
+        <f t="shared" si="12"/>
         <v>3.2682997588438921E-2</v>
       </c>
       <c r="P86">
-        <f>(L86-I86)/I86</f>
+        <f t="shared" si="9"/>
         <v>7.0645045904375786E-2</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.3431353114153274E-2</v>
       </c>
       <c r="S86">
-        <f>ABS(J86-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.4785926535897933</v>
       </c>
       <c r="T86">
-        <f>ABS(M86-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.49459265358979332</v>
       </c>
     </row>
@@ -10240,23 +15431,23 @@
         <v>85</v>
       </c>
       <c r="O87">
-        <f>(K87-H87)/H87</f>
+        <f t="shared" si="12"/>
         <v>-1.0699639088212897E-2</v>
       </c>
       <c r="P87">
-        <f>(L87-I87)/I87</f>
+        <f t="shared" si="9"/>
         <v>0.12065658844765335</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.6691576970272435E-2</v>
       </c>
       <c r="S87">
-        <f>ABS(J87-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.5995926535897933</v>
       </c>
       <c r="T87">
-        <f>ABS(M87-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.6215926535897931</v>
       </c>
     </row>
@@ -10304,23 +15495,23 @@
         <v>86</v>
       </c>
       <c r="O88">
-        <f>(K88-H88)/H88</f>
+        <f t="shared" si="12"/>
         <v>5.1749885410968576E-3</v>
       </c>
       <c r="P88">
-        <f>(L88-I88)/I88</f>
+        <f t="shared" si="9"/>
         <v>8.8363278313622978E-2</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-3.5132459383724182E-2</v>
       </c>
       <c r="S88">
-        <f>ABS(J88-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.71159265358979296</v>
       </c>
       <c r="T88">
-        <f>ABS(M88-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.68659265358979304</v>
       </c>
     </row>
@@ -10368,23 +15559,23 @@
         <v>87</v>
       </c>
       <c r="O89">
-        <f>(K89-H89)/H89</f>
+        <f t="shared" si="12"/>
         <v>-5.7366964011073499E-3</v>
       </c>
       <c r="P89">
-        <f>(L89-I89)/I89</f>
+        <f t="shared" si="9"/>
         <v>9.9470439456212575E-2</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-5.1895222355287124E-2</v>
       </c>
       <c r="S89">
-        <f>ABS(J89-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.82859265358979295</v>
       </c>
       <c r="T89">
-        <f>ABS(M89-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.78559265358979324</v>
       </c>
     </row>
@@ -10432,23 +15623,23 @@
         <v>88</v>
       </c>
       <c r="O90">
-        <f>(K90-H90)/H90</f>
+        <f t="shared" si="12"/>
         <v>-4.832923492904902E-3</v>
       </c>
       <c r="P90">
-        <f>(L90-I90)/I90</f>
+        <f t="shared" si="9"/>
         <v>8.3728437405427167E-2</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-4.1200404262698651E-2</v>
       </c>
       <c r="S90">
-        <f>ABS(J90-PI())</f>
+        <f t="shared" si="10"/>
         <v>0.94659265358979328</v>
       </c>
       <c r="T90">
-        <f>ABS(M90-PI())</f>
+        <f t="shared" si="11"/>
         <v>0.90759265358979313</v>
       </c>
     </row>
@@ -10496,23 +15687,23 @@
         <v>89</v>
       </c>
       <c r="O91">
-        <f>(K91-H91)/H91</f>
+        <f t="shared" si="12"/>
         <v>4.3781247765562461E-3</v>
       </c>
       <c r="P91">
-        <f>(L91-I91)/I91</f>
+        <f t="shared" si="9"/>
         <v>5.0389477716766669E-2</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.8839617938544947E-3</v>
       </c>
       <c r="S91">
-        <f>ABS(J91-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.061592653589793</v>
       </c>
       <c r="T91">
-        <f>ABS(M91-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.0595926535897933</v>
       </c>
     </row>
@@ -10560,23 +15751,23 @@
         <v>90</v>
       </c>
       <c r="O92">
-        <f>(K92-H92)/H92</f>
+        <f t="shared" si="12"/>
         <v>1.0965744079800341E-2</v>
       </c>
       <c r="P92">
-        <f>(L92-I92)/I92</f>
+        <f t="shared" si="9"/>
         <v>1.919176774173174E-2</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-2.0006791412217954E-2</v>
       </c>
       <c r="S92">
-        <f>ABS(J92-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.1995926535897932</v>
       </c>
       <c r="T92">
-        <f>ABS(M92-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.1755926535897931</v>
       </c>
     </row>
@@ -10624,23 +15815,23 @@
         <v>91</v>
       </c>
       <c r="O93">
-        <f>(K93-H93)/H93</f>
+        <f t="shared" si="12"/>
         <v>-1.6968090033345588E-2</v>
       </c>
       <c r="P93">
-        <f>(L93-I93)/I93</f>
+        <f t="shared" si="9"/>
         <v>9.6266773922263973E-2</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-3.8121591992109983E-3</v>
       </c>
       <c r="S93">
-        <f>ABS(J93-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.311592653589793</v>
       </c>
       <c r="T93">
-        <f>ABS(M93-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.3065926535897932</v>
       </c>
     </row>
@@ -10688,23 +15879,23 @@
         <v>92</v>
       </c>
       <c r="O94">
-        <f>(K94-H94)/H94</f>
+        <f t="shared" si="12"/>
         <v>1.0392161475486942E-2</v>
       </c>
       <c r="P94">
-        <f>(L94-I94)/I94</f>
+        <f t="shared" si="9"/>
         <v>3.4268061159915361E-2</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-6.3175954033744576E-3</v>
       </c>
       <c r="S94">
-        <f>ABS(J94-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.424592653589793</v>
       </c>
       <c r="T94">
-        <f>ABS(M94-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.4155926535897931</v>
       </c>
     </row>
@@ -10752,23 +15943,23 @@
         <v>93</v>
       </c>
       <c r="O95">
-        <f>(K95-H95)/H95</f>
+        <f t="shared" si="12"/>
         <v>2.6174126193712254E-2</v>
       </c>
       <c r="P95">
-        <f>(L95-I95)/I95</f>
+        <f t="shared" si="9"/>
         <v>1.4198808722488156E-2</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.742393392060268E-2</v>
       </c>
       <c r="S95">
-        <f>ABS(J95-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.549592653589793</v>
       </c>
       <c r="T95">
-        <f>ABS(M95-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.5225926535897931</v>
       </c>
     </row>
@@ -10816,23 +16007,23 @@
         <v>94</v>
       </c>
       <c r="O96">
-        <f>(K96-H96)/H96</f>
+        <f t="shared" si="12"/>
         <v>-8.0235357047338529E-3</v>
       </c>
       <c r="P96">
-        <f>(L96-I96)/I96</f>
+        <f t="shared" si="9"/>
         <v>3.8647744756179422E-2</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.8567403212602057E-2</v>
       </c>
       <c r="S96">
-        <f>ABS(J96-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.6695926535897931</v>
       </c>
       <c r="T96">
-        <f>ABS(M96-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.6385926535897932</v>
       </c>
     </row>
@@ -10880,23 +16071,23 @@
         <v>95</v>
       </c>
       <c r="O97">
-        <f>(K97-H97)/H97</f>
+        <f t="shared" si="12"/>
         <v>2.9068565182712568E-2</v>
       </c>
       <c r="P97">
-        <f>(L97-I97)/I97</f>
+        <f t="shared" si="9"/>
         <v>2.9760069944571501E-3</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1.9492171529008576E-2</v>
       </c>
       <c r="S97">
-        <f>ABS(J97-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.795592653589793</v>
       </c>
       <c r="T97">
-        <f>ABS(M97-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.7605926535897931</v>
       </c>
     </row>
@@ -10944,23 +16135,23 @@
         <v>96</v>
       </c>
       <c r="O98">
-        <f>(K98-H98)/H98</f>
+        <f t="shared" si="12"/>
         <v>1.7930399515174108E-2</v>
       </c>
       <c r="P98">
-        <f>(L98-I98)/I98</f>
+        <f t="shared" si="9"/>
         <v>1.1659026471300131E-4</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-8.4139996911512544E-3</v>
       </c>
       <c r="S98">
-        <f>ABS(J98-PI())</f>
+        <f t="shared" si="10"/>
         <v>1.9015926535897931</v>
       </c>
       <c r="T98">
-        <f>ABS(M98-PI())</f>
+        <f t="shared" si="11"/>
         <v>1.8855926535897931</v>
       </c>
     </row>
@@ -11008,23 +16199,23 @@
         <v>97</v>
       </c>
       <c r="O99">
-        <f>(K99-H99)/H99</f>
+        <f t="shared" si="12"/>
         <v>-4.2329524343049214E-2</v>
       </c>
       <c r="P99">
-        <f>(L99-I99)/I99</f>
+        <f t="shared" si="9"/>
         <v>1.3387974010393856E-2</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>1.2434144706220999E-2</v>
       </c>
       <c r="S99">
-        <f>ABS(J99-PI())</f>
+        <f t="shared" si="10"/>
         <v>2.0105926535897929</v>
       </c>
       <c r="T99">
-        <f>ABS(M99-PI())</f>
+        <f t="shared" si="11"/>
         <v>2.0355926535897932</v>
       </c>
     </row>
@@ -11072,23 +16263,23 @@
         <v>98</v>
       </c>
       <c r="O100">
-        <f>(K100-H100)/H100</f>
+        <f t="shared" si="12"/>
         <v>-1.7472023563801922E-2</v>
       </c>
       <c r="P100">
-        <f>(L100-I100)/I100</f>
+        <f t="shared" si="9"/>
         <v>5.2466266180430869E-2</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.8187638390469994E-2</v>
       </c>
       <c r="S100">
-        <f>ABS(J100-PI())</f>
+        <f t="shared" si="10"/>
         <v>2.1285926535897932</v>
       </c>
       <c r="T100">
-        <f>ABS(M100-PI())</f>
+        <f t="shared" si="11"/>
         <v>2.1885926535897933</v>
       </c>
     </row>
@@ -11136,23 +16327,23 @@
         <v>99</v>
       </c>
       <c r="O101">
-        <f>(K101-H101)/H101</f>
+        <f t="shared" si="12"/>
         <v>-1.9260663507109067E-2</v>
       </c>
       <c r="P101">
-        <f>(L101-I101)/I101</f>
+        <f t="shared" si="9"/>
         <v>4.3059345945695902E-2</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.4843319920182685E-2</v>
       </c>
       <c r="S101">
-        <f>ABS(J101-PI())</f>
+        <f t="shared" si="10"/>
         <v>2.2385926535897931</v>
       </c>
       <c r="T101">
-        <f>ABS(M101-PI())</f>
+        <f t="shared" si="11"/>
         <v>2.3165926535897929</v>
       </c>
     </row>
